--- a/raw_data/traits_biologiques.xlsx
+++ b/raw_data/traits_biologiques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\scripts\taille_maturite_especes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD92E26-D7AA-4F8F-96AE-95487047B46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DC1ABE-9647-4325-8F07-521D62245772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$J$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$K$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
   <si>
     <t>esp_code_alternatif</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Chabot</t>
   </si>
   <si>
-    <t>Chevaine</t>
-  </si>
-  <si>
     <t>Epinoche</t>
   </si>
   <si>
@@ -367,6 +364,36 @@
   </si>
   <si>
     <t>taille_maturite</t>
+  </si>
+  <si>
+    <t>age_maturite</t>
+  </si>
+  <si>
+    <t>1-4 ans</t>
+  </si>
+  <si>
+    <t>3-4 ans</t>
+  </si>
+  <si>
+    <t>1 an</t>
+  </si>
+  <si>
+    <t>2-3 ans</t>
+  </si>
+  <si>
+    <t>2 ans</t>
+  </si>
+  <si>
+    <t>1-3 ans</t>
+  </si>
+  <si>
+    <t>6 ans</t>
+  </si>
+  <si>
+    <t>3 ans</t>
+  </si>
+  <si>
+    <t>Chevesne</t>
   </si>
 </sst>
 </file>
@@ -440,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,6 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,15 +803,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
-  <dimension ref="A1:K598"/>
+  <dimension ref="A1:L598"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
@@ -791,48 +819,51 @@
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="9" max="10" width="29.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -840,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8">
@@ -854,19 +885,19 @@
         <v>55</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I33" si="0">MEDIAN(D2:H2)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="8">
         <v>370</v>
@@ -880,14 +911,15 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3:I33" si="0">MEDIAN(D3:H3)</f>
         <v>400</v>
       </c>
-      <c r="K3" s="3">
+      <c r="J3" s="1"/>
+      <c r="L3" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -895,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="8">
         <v>50</v>
@@ -908,22 +940,23 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8">
@@ -940,11 +973,15 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -952,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8">
         <v>35</v>
@@ -971,8 +1008,12 @@
         <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -980,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8">
@@ -995,8 +1036,9 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1004,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="8">
         <v>150</v>
@@ -1023,19 +1065,23 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="8">
         <v>400</v>
@@ -1052,16 +1098,17 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="8">
         <v>400</v>
@@ -1080,8 +1127,9 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1089,7 +1137,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8">
         <v>650</v>
@@ -1104,11 +1152,12 @@
         <f t="shared" si="0"/>
         <v>775</v>
       </c>
-      <c r="K11" s="1">
+      <c r="J11" s="1"/>
+      <c r="L11" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1116,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8">
@@ -1131,19 +1180,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K12" s="1">
+      <c r="J12" s="1"/>
+      <c r="L12" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="8">
         <v>30</v>
@@ -1160,22 +1210,23 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8">
@@ -1186,20 +1237,26 @@
       <c r="H14" s="8">
         <v>65</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8">
         <v>300</v>
@@ -1216,16 +1273,20 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8">
         <v>250</v>
@@ -1244,19 +1305,23 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="1">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="8">
         <v>50</v>
@@ -1275,16 +1340,20 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8">
         <v>270</v>
@@ -1297,19 +1366,20 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="K18" s="1">
+      <c r="J18" s="1"/>
+      <c r="L18" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8">
@@ -1324,19 +1394,20 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="K19" s="1">
+      <c r="J19" s="1"/>
+      <c r="L19" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8">
         <v>250</v>
@@ -1355,16 +1426,20 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8">
@@ -1379,16 +1454,17 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="8">
         <v>900</v>
@@ -1407,19 +1483,23 @@
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1">
+        <v>20</v>
+      </c>
+      <c r="L22" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8">
@@ -1438,19 +1518,20 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="8">
         <v>150</v>
@@ -1469,19 +1550,20 @@
         <f t="shared" si="0"/>
         <v>212.5</v>
       </c>
-      <c r="K24" s="1">
+      <c r="J24" s="1"/>
+      <c r="L24" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="8">
         <v>185</v>
@@ -1498,15 +1580,15 @@
       <c r="H25" s="8">
         <v>290</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="1">
+        <v>290</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1514,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="8">
         <v>100</v>
@@ -1531,26 +1613,29 @@
       <c r="H26" s="8">
         <v>45</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J26" s="1">
-        <v>3</v>
+      <c r="J26" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="8">
         <v>400</v>
@@ -1563,18 +1648,18 @@
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="4">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="J27" s="1">
-        <v>5</v>
-      </c>
+      <c r="I27" s="1">
+        <v>530</v>
+      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1582,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8">
@@ -1597,14 +1682,15 @@
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
         <v>5</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1612,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8">
         <v>450</v>
@@ -1627,15 +1713,15 @@
       <c r="H29" s="8">
         <v>300</v>
       </c>
-      <c r="I29" s="4">
-        <f t="shared" si="0"/>
-        <v>425</v>
-      </c>
-      <c r="J29" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>400</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1643,7 +1729,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="8">
         <v>140</v>
@@ -1660,15 +1746,18 @@
       <c r="H30" s="9">
         <v>270</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="J30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1676,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="8">
         <v>270</v>
@@ -1693,18 +1782,20 @@
       <c r="H31" s="8">
         <v>220</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J31" s="1">
-        <v>3</v>
+      <c r="I31" s="1">
+        <v>280</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1712,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="8">
         <v>270</v>
@@ -1729,18 +1820,18 @@
       <c r="H32" s="8">
         <v>310</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="J32" s="1">
-        <v>3</v>
-      </c>
+      <c r="I32" s="1">
+        <v>450</v>
+      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1748,7 +1839,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="8">
         <v>430</v>
@@ -1765,18 +1856,21 @@
       <c r="H33" s="8">
         <v>450</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="1">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="J33" s="1">
-        <v>3</v>
+      <c r="J33" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="K33" s="1">
+        <v>5</v>
+      </c>
+      <c r="L33" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1784,7 +1878,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="8">
         <v>50</v>
@@ -1801,23 +1895,26 @@
       <c r="H34" s="8">
         <v>45</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" ref="I34:I52" si="1">MEDIAN(D34:H34)</f>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I51" si="1">MEDIAN(D34:H34)</f>
         <v>50</v>
       </c>
-      <c r="J34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="8">
         <v>200</v>
@@ -1834,26 +1931,28 @@
       <c r="H35" s="8">
         <v>160</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J35" s="1">
-        <v>3</v>
+      <c r="I35" s="1">
+        <v>300</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="K35" s="1">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8">
@@ -1872,11 +1971,14 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1884,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8">
@@ -1901,11 +2003,17 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J37" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="K37" s="1">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1913,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="8">
         <v>250</v>
@@ -1932,19 +2040,20 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="8">
         <v>80</v>
@@ -1965,19 +2074,22 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="J39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="8">
         <v>130</v>
@@ -1998,19 +2110,22 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8">
@@ -2029,22 +2144,25 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="J41" s="1">
-        <v>3</v>
+      <c r="J41" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="K41" s="1">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8">
@@ -2061,19 +2179,20 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="8">
         <v>120</v>
@@ -2094,22 +2213,25 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="J43" s="1">
-        <v>3</v>
+      <c r="J43" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="K43" s="1">
+        <v>6</v>
+      </c>
+      <c r="L43" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="8">
         <v>250</v>
@@ -2126,16 +2248,17 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" s="8">
         <v>270</v>
@@ -2156,19 +2279,20 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="8">
         <v>150</v>
@@ -2185,26 +2309,27 @@
       <c r="H46" s="8">
         <v>90</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1">
         <v>3</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8">
@@ -2219,23 +2344,25 @@
       <c r="H47" s="8">
         <v>105</v>
       </c>
-      <c r="I47" s="4">
-        <f t="shared" si="1"/>
-        <v>152.5</v>
-      </c>
-      <c r="J47" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>100</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8">
@@ -2248,20 +2375,23 @@
       <c r="H48" s="8">
         <v>120</v>
       </c>
-      <c r="I48" s="4">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>500</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="8">
         <v>180</v>
@@ -2276,20 +2406,26 @@
       <c r="H49" s="8">
         <v>180</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="1">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="8">
         <v>120</v>
@@ -2306,23 +2442,25 @@
       <c r="H50" s="8">
         <v>115</v>
       </c>
-      <c r="I50" s="4">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="J50" s="1">
+      <c r="I50" s="1">
+        <v>200</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="8">
         <v>50</v>
@@ -2337,20 +2475,26 @@
       <c r="H51" s="8">
         <v>90</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="8">
         <v>110</v>
@@ -2367,1662 +2511,2210 @@
       <c r="H52" s="8">
         <v>135</v>
       </c>
-      <c r="I52" s="4">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="J52" s="1">
-        <v>3</v>
+      <c r="I52" s="1">
+        <v>170</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="K52" s="1">
+        <v>4</v>
+      </c>
+      <c r="L52" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I220" s="1"/>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I222" s="1"/>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I236" s="1"/>
-    </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I237" s="1"/>
-    </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I238" s="1"/>
-    </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I239" s="1"/>
-    </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I241" s="1"/>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I242" s="1"/>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I243" s="1"/>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="1"/>
+    </row>
+    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I244" s="1"/>
-    </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I245" s="1"/>
-    </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I246" s="1"/>
-    </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="1"/>
+    </row>
+    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I247" s="1"/>
-    </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="1"/>
+    </row>
+    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I248" s="1"/>
-    </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="1"/>
+    </row>
+    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I249" s="1"/>
-    </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="1"/>
+    </row>
+    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I250" s="1"/>
-    </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="1"/>
+    </row>
+    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I251" s="1"/>
-    </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="1"/>
+    </row>
+    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="1"/>
+    </row>
+    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I253" s="1"/>
-    </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="1"/>
+    </row>
+    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I254" s="1"/>
-    </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="1"/>
+    </row>
+    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I255" s="1"/>
-    </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="1"/>
+    </row>
+    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I256" s="1"/>
-    </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="1"/>
+    </row>
+    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I257" s="1"/>
-    </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="1"/>
+    </row>
+    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I258" s="1"/>
-    </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="1"/>
+    </row>
+    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I259" s="1"/>
-    </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="1"/>
+    </row>
+    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I260" s="1"/>
-    </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="1"/>
+    </row>
+    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I261" s="1"/>
-    </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="1"/>
+    </row>
+    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I262" s="1"/>
-    </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="1"/>
+    </row>
+    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I263" s="1"/>
-    </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="1"/>
+    </row>
+    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I264" s="1"/>
-    </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I265" s="1"/>
-    </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="1"/>
+    </row>
+    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I266" s="1"/>
-    </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="1"/>
+    </row>
+    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I267" s="1"/>
-    </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I268" s="1"/>
-    </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I269" s="1"/>
-    </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I270" s="1"/>
-    </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="1"/>
+    </row>
+    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I271" s="1"/>
-    </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="1"/>
+    </row>
+    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I272" s="1"/>
-    </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I273" s="1"/>
-    </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="1"/>
+    </row>
+    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I274" s="1"/>
-    </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="1"/>
+    </row>
+    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I275" s="1"/>
-    </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="1"/>
+    </row>
+    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I276" s="1"/>
-    </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I277" s="1"/>
-    </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="1"/>
+    </row>
+    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I278" s="1"/>
-    </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="1"/>
+    </row>
+    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I279" s="1"/>
-    </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="1"/>
+    </row>
+    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I280" s="1"/>
-    </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="1"/>
+    </row>
+    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I281" s="1"/>
-    </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="1"/>
+    </row>
+    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I282" s="1"/>
-    </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="1"/>
+    </row>
+    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I283" s="1"/>
-    </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="1"/>
+    </row>
+    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I284" s="1"/>
-    </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="1"/>
+    </row>
+    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I285" s="1"/>
-    </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I286" s="1"/>
-    </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="1"/>
+    </row>
+    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I287" s="1"/>
-    </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="1"/>
+    </row>
+    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I288" s="1"/>
-    </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="1"/>
+    </row>
+    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I289" s="1"/>
-    </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="1"/>
+    </row>
+    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I290" s="1"/>
-    </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="1"/>
+    </row>
+    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I291" s="1"/>
-    </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="1"/>
+    </row>
+    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I292" s="1"/>
-    </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="1"/>
+    </row>
+    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I293" s="1"/>
-    </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="1"/>
+    </row>
+    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I294" s="1"/>
-    </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="1"/>
+    </row>
+    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I295" s="1"/>
-    </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="1"/>
+    </row>
+    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I296" s="1"/>
-    </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="1"/>
+    </row>
+    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I297" s="1"/>
-    </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="1"/>
+    </row>
+    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I298" s="1"/>
-    </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="1"/>
+    </row>
+    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I299" s="1"/>
-    </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="1"/>
+    </row>
+    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I300" s="1"/>
-    </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="1"/>
+    </row>
+    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I301" s="1"/>
-    </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="1"/>
+    </row>
+    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I302" s="1"/>
-    </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="1"/>
+    </row>
+    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I303" s="1"/>
-    </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="1"/>
+    </row>
+    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I304" s="1"/>
-    </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="1"/>
+    </row>
+    <row r="305" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I305" s="1"/>
-    </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="1"/>
+    </row>
+    <row r="306" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I306" s="1"/>
-    </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="1"/>
+    </row>
+    <row r="307" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I307" s="1"/>
-    </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="1"/>
+    </row>
+    <row r="308" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I308" s="1"/>
-    </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="1"/>
+    </row>
+    <row r="309" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I309" s="1"/>
-    </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="1"/>
+    </row>
+    <row r="310" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I310" s="1"/>
-    </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="1"/>
+    </row>
+    <row r="311" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I311" s="1"/>
-    </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="1"/>
+    </row>
+    <row r="312" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I312" s="1"/>
-    </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="1"/>
+    </row>
+    <row r="313" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I313" s="1"/>
-    </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="1"/>
+    </row>
+    <row r="314" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I314" s="1"/>
-    </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="1"/>
+    </row>
+    <row r="315" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I315" s="1"/>
-    </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="1"/>
+    </row>
+    <row r="316" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I316" s="1"/>
-    </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="1"/>
+    </row>
+    <row r="317" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I317" s="1"/>
-    </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="1"/>
+    </row>
+    <row r="318" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I318" s="1"/>
-    </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="1"/>
+    </row>
+    <row r="319" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I319" s="1"/>
-    </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="1"/>
+    </row>
+    <row r="320" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I320" s="1"/>
-    </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="1"/>
+    </row>
+    <row r="321" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I321" s="1"/>
-    </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="1"/>
+    </row>
+    <row r="322" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I322" s="1"/>
-    </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="1"/>
+    </row>
+    <row r="323" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I323" s="1"/>
-    </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="1"/>
+    </row>
+    <row r="324" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I324" s="1"/>
-    </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="1"/>
+    </row>
+    <row r="325" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I325" s="1"/>
-    </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="1"/>
+    </row>
+    <row r="326" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I326" s="1"/>
-    </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="1"/>
+    </row>
+    <row r="327" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I327" s="1"/>
-    </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="1"/>
+    </row>
+    <row r="328" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I328" s="1"/>
-    </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="1"/>
+    </row>
+    <row r="329" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I329" s="1"/>
-    </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="1"/>
+    </row>
+    <row r="330" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I330" s="1"/>
-    </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="1"/>
+    </row>
+    <row r="331" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I331" s="1"/>
-    </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="1"/>
+    </row>
+    <row r="332" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I332" s="1"/>
-    </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="1"/>
+    </row>
+    <row r="333" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I333" s="1"/>
-    </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="1"/>
+    </row>
+    <row r="334" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I334" s="1"/>
-    </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="1"/>
+    </row>
+    <row r="335" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I335" s="1"/>
-    </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="1"/>
+    </row>
+    <row r="336" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I336" s="1"/>
-    </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="1"/>
+    </row>
+    <row r="337" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I337" s="1"/>
-    </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="1"/>
+    </row>
+    <row r="338" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I338" s="1"/>
-    </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="1"/>
+    </row>
+    <row r="339" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I339" s="1"/>
-    </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="1"/>
+    </row>
+    <row r="340" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I340" s="1"/>
-    </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="1"/>
+    </row>
+    <row r="341" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I341" s="1"/>
-    </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="1"/>
+    </row>
+    <row r="342" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I342" s="1"/>
-    </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="1"/>
+    </row>
+    <row r="343" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I343" s="1"/>
-    </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="1"/>
+    </row>
+    <row r="344" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I344" s="1"/>
-    </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="1"/>
+    </row>
+    <row r="345" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I345" s="1"/>
-    </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="1"/>
+    </row>
+    <row r="346" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I346" s="1"/>
-    </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="1"/>
+    </row>
+    <row r="347" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I347" s="1"/>
-    </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="1"/>
+    </row>
+    <row r="348" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I348" s="1"/>
-    </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="1"/>
+    </row>
+    <row r="349" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I349" s="1"/>
-    </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="1"/>
+    </row>
+    <row r="350" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I350" s="1"/>
-    </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="1"/>
+    </row>
+    <row r="351" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I351" s="1"/>
-    </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="1"/>
+    </row>
+    <row r="352" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I352" s="1"/>
-    </row>
-    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="1"/>
+    </row>
+    <row r="353" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I353" s="1"/>
-    </row>
-    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="1"/>
+    </row>
+    <row r="354" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I354" s="1"/>
-    </row>
-    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="1"/>
+    </row>
+    <row r="355" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I355" s="1"/>
-    </row>
-    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="1"/>
+    </row>
+    <row r="356" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I356" s="1"/>
-    </row>
-    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="1"/>
+    </row>
+    <row r="357" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I357" s="1"/>
-    </row>
-    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="1"/>
+    </row>
+    <row r="358" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I358" s="1"/>
-    </row>
-    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="1"/>
+    </row>
+    <row r="359" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I359" s="1"/>
-    </row>
-    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="1"/>
+    </row>
+    <row r="360" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I360" s="1"/>
-    </row>
-    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I361" s="1"/>
-    </row>
-    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I362" s="1"/>
-    </row>
-    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="1"/>
+    </row>
+    <row r="363" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I363" s="1"/>
-    </row>
-    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I364" s="1"/>
-    </row>
-    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I365" s="1"/>
-    </row>
-    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="1"/>
+    </row>
+    <row r="366" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I366" s="1"/>
-    </row>
-    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="1"/>
+    </row>
+    <row r="367" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I367" s="1"/>
-    </row>
-    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="1"/>
+    </row>
+    <row r="368" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I368" s="1"/>
-    </row>
-    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="1"/>
+    </row>
+    <row r="369" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I369" s="1"/>
-    </row>
-    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="1"/>
+    </row>
+    <row r="370" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I370" s="1"/>
-    </row>
-    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="1"/>
+    </row>
+    <row r="371" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I371" s="1"/>
-    </row>
-    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="1"/>
+    </row>
+    <row r="372" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I372" s="1"/>
-    </row>
-    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="1"/>
+    </row>
+    <row r="373" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I373" s="1"/>
-    </row>
-    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="1"/>
+    </row>
+    <row r="374" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I374" s="1"/>
-    </row>
-    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="1"/>
+    </row>
+    <row r="375" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I375" s="1"/>
-    </row>
-    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="1"/>
+    </row>
+    <row r="376" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I376" s="1"/>
-    </row>
-    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="1"/>
+    </row>
+    <row r="377" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I377" s="1"/>
-    </row>
-    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="1"/>
+    </row>
+    <row r="378" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I378" s="1"/>
-    </row>
-    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="1"/>
+    </row>
+    <row r="379" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I379" s="1"/>
-    </row>
-    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="1"/>
+    </row>
+    <row r="380" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I380" s="1"/>
-    </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="1"/>
+    </row>
+    <row r="381" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I381" s="1"/>
-    </row>
-    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="1"/>
+    </row>
+    <row r="382" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I382" s="1"/>
-    </row>
-    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="1"/>
+    </row>
+    <row r="383" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I383" s="1"/>
-    </row>
-    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="1"/>
+    </row>
+    <row r="384" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I384" s="1"/>
-    </row>
-    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="1"/>
+    </row>
+    <row r="385" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I385" s="1"/>
-    </row>
-    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="1"/>
+    </row>
+    <row r="386" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I386" s="1"/>
-    </row>
-    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="1"/>
+    </row>
+    <row r="387" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I387" s="1"/>
-    </row>
-    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="1"/>
+    </row>
+    <row r="388" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I388" s="1"/>
-    </row>
-    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="1"/>
+    </row>
+    <row r="389" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I389" s="1"/>
-    </row>
-    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="1"/>
+    </row>
+    <row r="390" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I390" s="1"/>
-    </row>
-    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="1"/>
+    </row>
+    <row r="391" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I391" s="1"/>
-    </row>
-    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="1"/>
+    </row>
+    <row r="392" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I392" s="1"/>
-    </row>
-    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="1"/>
+    </row>
+    <row r="393" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I393" s="1"/>
-    </row>
-    <row r="394" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="1"/>
+    </row>
+    <row r="394" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I394" s="1"/>
-    </row>
-    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="1"/>
+    </row>
+    <row r="395" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I395" s="1"/>
-    </row>
-    <row r="396" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="1"/>
+    </row>
+    <row r="396" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I396" s="1"/>
-    </row>
-    <row r="397" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="1"/>
+    </row>
+    <row r="397" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I397" s="1"/>
-    </row>
-    <row r="398" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="1"/>
+    </row>
+    <row r="398" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I398" s="1"/>
-    </row>
-    <row r="399" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="1"/>
+    </row>
+    <row r="399" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I399" s="1"/>
-    </row>
-    <row r="400" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="1"/>
+    </row>
+    <row r="400" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I400" s="1"/>
-    </row>
-    <row r="401" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="1"/>
+    </row>
+    <row r="401" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I401" s="1"/>
-    </row>
-    <row r="402" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="1"/>
+    </row>
+    <row r="402" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I402" s="1"/>
-    </row>
-    <row r="403" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="1"/>
+    </row>
+    <row r="403" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I403" s="1"/>
-    </row>
-    <row r="404" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="1"/>
+    </row>
+    <row r="404" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I404" s="1"/>
-    </row>
-    <row r="405" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="1"/>
+    </row>
+    <row r="405" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I405" s="1"/>
-    </row>
-    <row r="406" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="1"/>
+    </row>
+    <row r="406" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I406" s="1"/>
-    </row>
-    <row r="407" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="1"/>
+    </row>
+    <row r="407" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I407" s="1"/>
-    </row>
-    <row r="408" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="1"/>
+    </row>
+    <row r="408" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I408" s="1"/>
-    </row>
-    <row r="409" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="1"/>
+    </row>
+    <row r="409" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I409" s="1"/>
-    </row>
-    <row r="410" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I410" s="1"/>
-    </row>
-    <row r="411" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I411" s="1"/>
-    </row>
-    <row r="412" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I412" s="1"/>
-    </row>
-    <row r="413" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I413" s="1"/>
-    </row>
-    <row r="414" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I414" s="1"/>
-    </row>
-    <row r="415" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I415" s="1"/>
-    </row>
-    <row r="416" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I416" s="1"/>
-    </row>
-    <row r="417" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I417" s="1"/>
-    </row>
-    <row r="418" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="1"/>
+    </row>
+    <row r="418" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I418" s="1"/>
-    </row>
-    <row r="419" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="1"/>
+    </row>
+    <row r="419" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I419" s="1"/>
-    </row>
-    <row r="420" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="1"/>
+    </row>
+    <row r="420" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I420" s="1"/>
-    </row>
-    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="1"/>
+    </row>
+    <row r="421" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I421" s="1"/>
-    </row>
-    <row r="422" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="1"/>
+    </row>
+    <row r="422" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I422" s="1"/>
-    </row>
-    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="1"/>
+    </row>
+    <row r="423" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I423" s="1"/>
-    </row>
-    <row r="424" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="1"/>
+    </row>
+    <row r="424" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I424" s="1"/>
-    </row>
-    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="1"/>
+    </row>
+    <row r="425" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I425" s="1"/>
-    </row>
-    <row r="426" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="1"/>
+    </row>
+    <row r="426" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I426" s="1"/>
-    </row>
-    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="1"/>
+    </row>
+    <row r="427" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I427" s="1"/>
-    </row>
-    <row r="428" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="1"/>
+    </row>
+    <row r="428" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I428" s="1"/>
-    </row>
-    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J428" s="1"/>
+    </row>
+    <row r="429" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I429" s="1"/>
-    </row>
-    <row r="430" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="1"/>
+    </row>
+    <row r="430" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I430" s="1"/>
-    </row>
-    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="1"/>
+    </row>
+    <row r="431" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I431" s="1"/>
-    </row>
-    <row r="432" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="1"/>
+    </row>
+    <row r="432" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I432" s="1"/>
-    </row>
-    <row r="433" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="1"/>
+    </row>
+    <row r="433" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I433" s="1"/>
-    </row>
-    <row r="434" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="1"/>
+    </row>
+    <row r="434" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I434" s="1"/>
-    </row>
-    <row r="435" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="1"/>
+    </row>
+    <row r="435" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I435" s="1"/>
-    </row>
-    <row r="436" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="1"/>
+    </row>
+    <row r="436" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I436" s="1"/>
-    </row>
-    <row r="437" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="1"/>
+    </row>
+    <row r="437" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I437" s="1"/>
-    </row>
-    <row r="438" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="1"/>
+    </row>
+    <row r="438" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I438" s="1"/>
-    </row>
-    <row r="439" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="1"/>
+    </row>
+    <row r="439" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I439" s="1"/>
-    </row>
-    <row r="440" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="1"/>
+    </row>
+    <row r="440" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I440" s="1"/>
-    </row>
-    <row r="441" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="1"/>
+    </row>
+    <row r="441" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I441" s="1"/>
-    </row>
-    <row r="442" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="1"/>
+    </row>
+    <row r="442" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I442" s="1"/>
-    </row>
-    <row r="443" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="1"/>
+    </row>
+    <row r="443" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I443" s="1"/>
-    </row>
-    <row r="444" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="1"/>
+    </row>
+    <row r="444" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I444" s="1"/>
-    </row>
-    <row r="445" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="1"/>
+    </row>
+    <row r="445" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I445" s="1"/>
-    </row>
-    <row r="446" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="1"/>
+    </row>
+    <row r="446" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I446" s="1"/>
-    </row>
-    <row r="447" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="1"/>
+    </row>
+    <row r="447" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I447" s="1"/>
-    </row>
-    <row r="448" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="1"/>
+    </row>
+    <row r="448" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I448" s="1"/>
-    </row>
-    <row r="449" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="1"/>
+    </row>
+    <row r="449" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I449" s="1"/>
-    </row>
-    <row r="450" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="1"/>
+    </row>
+    <row r="450" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I450" s="1"/>
-    </row>
-    <row r="451" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="1"/>
+    </row>
+    <row r="451" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I451" s="1"/>
-    </row>
-    <row r="452" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="1"/>
+    </row>
+    <row r="452" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I452" s="1"/>
-    </row>
-    <row r="453" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="1"/>
+    </row>
+    <row r="453" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I453" s="1"/>
-    </row>
-    <row r="454" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="1"/>
+    </row>
+    <row r="454" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I454" s="1"/>
-    </row>
-    <row r="455" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="1"/>
+    </row>
+    <row r="455" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I455" s="1"/>
-    </row>
-    <row r="456" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="1"/>
+    </row>
+    <row r="456" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I456" s="1"/>
-    </row>
-    <row r="457" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J456" s="1"/>
+    </row>
+    <row r="457" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I457" s="1"/>
-    </row>
-    <row r="458" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="1"/>
+    </row>
+    <row r="458" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I458" s="1"/>
-    </row>
-    <row r="459" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J458" s="1"/>
+    </row>
+    <row r="459" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I459" s="1"/>
-    </row>
-    <row r="460" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J459" s="1"/>
+    </row>
+    <row r="460" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I460" s="1"/>
-    </row>
-    <row r="461" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J460" s="1"/>
+    </row>
+    <row r="461" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I461" s="1"/>
-    </row>
-    <row r="462" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J461" s="1"/>
+    </row>
+    <row r="462" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I462" s="1"/>
-    </row>
-    <row r="463" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J462" s="1"/>
+    </row>
+    <row r="463" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I463" s="1"/>
-    </row>
-    <row r="464" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J463" s="1"/>
+    </row>
+    <row r="464" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I464" s="1"/>
-    </row>
-    <row r="465" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J464" s="1"/>
+    </row>
+    <row r="465" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I465" s="1"/>
-    </row>
-    <row r="466" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J465" s="1"/>
+    </row>
+    <row r="466" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I466" s="1"/>
-    </row>
-    <row r="467" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J466" s="1"/>
+    </row>
+    <row r="467" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I467" s="1"/>
-    </row>
-    <row r="468" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J467" s="1"/>
+    </row>
+    <row r="468" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I468" s="1"/>
-    </row>
-    <row r="469" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J468" s="1"/>
+    </row>
+    <row r="469" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I469" s="1"/>
-    </row>
-    <row r="470" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J469" s="1"/>
+    </row>
+    <row r="470" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I470" s="1"/>
-    </row>
-    <row r="471" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J470" s="1"/>
+    </row>
+    <row r="471" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I471" s="1"/>
-    </row>
-    <row r="472" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J471" s="1"/>
+    </row>
+    <row r="472" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I472" s="1"/>
-    </row>
-    <row r="473" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J472" s="1"/>
+    </row>
+    <row r="473" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I473" s="1"/>
-    </row>
-    <row r="474" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J473" s="1"/>
+    </row>
+    <row r="474" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I474" s="1"/>
-    </row>
-    <row r="475" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J474" s="1"/>
+    </row>
+    <row r="475" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I475" s="1"/>
-    </row>
-    <row r="476" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J475" s="1"/>
+    </row>
+    <row r="476" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I476" s="1"/>
-    </row>
-    <row r="477" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J476" s="1"/>
+    </row>
+    <row r="477" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I477" s="1"/>
-    </row>
-    <row r="478" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J477" s="1"/>
+    </row>
+    <row r="478" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I478" s="1"/>
-    </row>
-    <row r="479" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J478" s="1"/>
+    </row>
+    <row r="479" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I479" s="1"/>
-    </row>
-    <row r="480" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J479" s="1"/>
+    </row>
+    <row r="480" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I480" s="1"/>
-    </row>
-    <row r="481" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J480" s="1"/>
+    </row>
+    <row r="481" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I481" s="1"/>
-    </row>
-    <row r="482" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J481" s="1"/>
+    </row>
+    <row r="482" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I482" s="1"/>
-    </row>
-    <row r="483" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J482" s="1"/>
+    </row>
+    <row r="483" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I483" s="1"/>
-    </row>
-    <row r="484" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J483" s="1"/>
+    </row>
+    <row r="484" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I484" s="1"/>
-    </row>
-    <row r="485" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J484" s="1"/>
+    </row>
+    <row r="485" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I485" s="1"/>
-    </row>
-    <row r="486" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J485" s="1"/>
+    </row>
+    <row r="486" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I486" s="1"/>
-    </row>
-    <row r="487" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J486" s="1"/>
+    </row>
+    <row r="487" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I487" s="1"/>
-    </row>
-    <row r="488" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J487" s="1"/>
+    </row>
+    <row r="488" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I488" s="1"/>
-    </row>
-    <row r="489" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J488" s="1"/>
+    </row>
+    <row r="489" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I489" s="1"/>
-    </row>
-    <row r="490" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J489" s="1"/>
+    </row>
+    <row r="490" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I490" s="1"/>
-    </row>
-    <row r="491" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J490" s="1"/>
+    </row>
+    <row r="491" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I491" s="1"/>
-    </row>
-    <row r="492" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J491" s="1"/>
+    </row>
+    <row r="492" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I492" s="1"/>
-    </row>
-    <row r="493" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J492" s="1"/>
+    </row>
+    <row r="493" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I493" s="1"/>
-    </row>
-    <row r="494" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J493" s="1"/>
+    </row>
+    <row r="494" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I494" s="1"/>
-    </row>
-    <row r="495" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J494" s="1"/>
+    </row>
+    <row r="495" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I495" s="1"/>
-    </row>
-    <row r="496" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J495" s="1"/>
+    </row>
+    <row r="496" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I496" s="1"/>
-    </row>
-    <row r="497" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J496" s="1"/>
+    </row>
+    <row r="497" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I497" s="1"/>
-    </row>
-    <row r="498" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J497" s="1"/>
+    </row>
+    <row r="498" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I498" s="1"/>
-    </row>
-    <row r="499" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J498" s="1"/>
+    </row>
+    <row r="499" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I499" s="1"/>
-    </row>
-    <row r="500" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J499" s="1"/>
+    </row>
+    <row r="500" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I500" s="1"/>
-    </row>
-    <row r="501" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J500" s="1"/>
+    </row>
+    <row r="501" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I501" s="1"/>
-    </row>
-    <row r="502" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J501" s="1"/>
+    </row>
+    <row r="502" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I502" s="1"/>
-    </row>
-    <row r="503" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J502" s="1"/>
+    </row>
+    <row r="503" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I503" s="1"/>
-    </row>
-    <row r="504" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J503" s="1"/>
+    </row>
+    <row r="504" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I504" s="1"/>
-    </row>
-    <row r="505" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J504" s="1"/>
+    </row>
+    <row r="505" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I505" s="1"/>
-    </row>
-    <row r="506" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J505" s="1"/>
+    </row>
+    <row r="506" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I506" s="1"/>
-    </row>
-    <row r="507" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J506" s="1"/>
+    </row>
+    <row r="507" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I507" s="1"/>
-    </row>
-    <row r="508" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J507" s="1"/>
+    </row>
+    <row r="508" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I508" s="1"/>
-    </row>
-    <row r="509" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J508" s="1"/>
+    </row>
+    <row r="509" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I509" s="1"/>
-    </row>
-    <row r="510" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J509" s="1"/>
+    </row>
+    <row r="510" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I510" s="1"/>
-    </row>
-    <row r="511" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J510" s="1"/>
+    </row>
+    <row r="511" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I511" s="1"/>
-    </row>
-    <row r="512" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J511" s="1"/>
+    </row>
+    <row r="512" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I512" s="1"/>
-    </row>
-    <row r="513" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J512" s="1"/>
+    </row>
+    <row r="513" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I513" s="1"/>
-    </row>
-    <row r="514" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J513" s="1"/>
+    </row>
+    <row r="514" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I514" s="1"/>
-    </row>
-    <row r="515" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J514" s="1"/>
+    </row>
+    <row r="515" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I515" s="1"/>
-    </row>
-    <row r="516" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J515" s="1"/>
+    </row>
+    <row r="516" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I516" s="1"/>
-    </row>
-    <row r="517" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J516" s="1"/>
+    </row>
+    <row r="517" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I517" s="1"/>
-    </row>
-    <row r="518" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J517" s="1"/>
+    </row>
+    <row r="518" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I518" s="1"/>
-    </row>
-    <row r="519" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J518" s="1"/>
+    </row>
+    <row r="519" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I519" s="1"/>
-    </row>
-    <row r="520" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J519" s="1"/>
+    </row>
+    <row r="520" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I520" s="1"/>
-    </row>
-    <row r="521" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J520" s="1"/>
+    </row>
+    <row r="521" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I521" s="1"/>
-    </row>
-    <row r="522" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J521" s="1"/>
+    </row>
+    <row r="522" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I522" s="1"/>
-    </row>
-    <row r="523" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J522" s="1"/>
+    </row>
+    <row r="523" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I523" s="1"/>
-    </row>
-    <row r="524" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J523" s="1"/>
+    </row>
+    <row r="524" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I524" s="1"/>
-    </row>
-    <row r="525" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J524" s="1"/>
+    </row>
+    <row r="525" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I525" s="1"/>
-    </row>
-    <row r="526" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J525" s="1"/>
+    </row>
+    <row r="526" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I526" s="1"/>
-    </row>
-    <row r="527" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J526" s="1"/>
+    </row>
+    <row r="527" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I527" s="1"/>
-    </row>
-    <row r="528" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J527" s="1"/>
+    </row>
+    <row r="528" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I528" s="1"/>
-    </row>
-    <row r="529" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J528" s="1"/>
+    </row>
+    <row r="529" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I529" s="1"/>
-    </row>
-    <row r="530" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J529" s="1"/>
+    </row>
+    <row r="530" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I530" s="1"/>
-    </row>
-    <row r="531" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J530" s="1"/>
+    </row>
+    <row r="531" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I531" s="1"/>
-    </row>
-    <row r="532" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J531" s="1"/>
+    </row>
+    <row r="532" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I532" s="1"/>
-    </row>
-    <row r="533" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J532" s="1"/>
+    </row>
+    <row r="533" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I533" s="1"/>
-    </row>
-    <row r="534" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J533" s="1"/>
+    </row>
+    <row r="534" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I534" s="1"/>
-    </row>
-    <row r="535" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J534" s="1"/>
+    </row>
+    <row r="535" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I535" s="1"/>
-    </row>
-    <row r="536" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J535" s="1"/>
+    </row>
+    <row r="536" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I536" s="1"/>
-    </row>
-    <row r="537" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J536" s="1"/>
+    </row>
+    <row r="537" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I537" s="1"/>
-    </row>
-    <row r="538" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J537" s="1"/>
+    </row>
+    <row r="538" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I538" s="1"/>
-    </row>
-    <row r="539" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J538" s="1"/>
+    </row>
+    <row r="539" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I539" s="1"/>
-    </row>
-    <row r="540" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J539" s="1"/>
+    </row>
+    <row r="540" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I540" s="1"/>
-    </row>
-    <row r="541" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J540" s="1"/>
+    </row>
+    <row r="541" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I541" s="1"/>
-    </row>
-    <row r="542" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J541" s="1"/>
+    </row>
+    <row r="542" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I542" s="1"/>
-    </row>
-    <row r="543" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J542" s="1"/>
+    </row>
+    <row r="543" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I543" s="1"/>
-    </row>
-    <row r="544" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J543" s="1"/>
+    </row>
+    <row r="544" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I544" s="1"/>
-    </row>
-    <row r="545" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J544" s="1"/>
+    </row>
+    <row r="545" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I545" s="1"/>
-    </row>
-    <row r="546" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J545" s="1"/>
+    </row>
+    <row r="546" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I546" s="1"/>
-    </row>
-    <row r="547" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J546" s="1"/>
+    </row>
+    <row r="547" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I547" s="1"/>
-    </row>
-    <row r="548" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J547" s="1"/>
+    </row>
+    <row r="548" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I548" s="1"/>
-    </row>
-    <row r="549" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J548" s="1"/>
+    </row>
+    <row r="549" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I549" s="1"/>
-    </row>
-    <row r="550" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J549" s="1"/>
+    </row>
+    <row r="550" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I550" s="1"/>
-    </row>
-    <row r="551" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J550" s="1"/>
+    </row>
+    <row r="551" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I551" s="1"/>
-    </row>
-    <row r="552" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J551" s="1"/>
+    </row>
+    <row r="552" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I552" s="1"/>
-    </row>
-    <row r="553" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J552" s="1"/>
+    </row>
+    <row r="553" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I553" s="1"/>
-    </row>
-    <row r="554" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J553" s="1"/>
+    </row>
+    <row r="554" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I554" s="1"/>
-    </row>
-    <row r="555" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J554" s="1"/>
+    </row>
+    <row r="555" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I555" s="1"/>
-    </row>
-    <row r="556" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J555" s="1"/>
+    </row>
+    <row r="556" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I556" s="1"/>
-    </row>
-    <row r="557" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J556" s="1"/>
+    </row>
+    <row r="557" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I557" s="1"/>
-    </row>
-    <row r="558" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J557" s="1"/>
+    </row>
+    <row r="558" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I558" s="1"/>
-    </row>
-    <row r="559" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J558" s="1"/>
+    </row>
+    <row r="559" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I559" s="1"/>
-    </row>
-    <row r="560" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J559" s="1"/>
+    </row>
+    <row r="560" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I560" s="1"/>
-    </row>
-    <row r="561" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J560" s="1"/>
+    </row>
+    <row r="561" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I561" s="1"/>
-    </row>
-    <row r="562" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J561" s="1"/>
+    </row>
+    <row r="562" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I562" s="1"/>
-    </row>
-    <row r="563" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J562" s="1"/>
+    </row>
+    <row r="563" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I563" s="1"/>
-    </row>
-    <row r="564" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J563" s="1"/>
+    </row>
+    <row r="564" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I564" s="1"/>
-    </row>
-    <row r="565" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J564" s="1"/>
+    </row>
+    <row r="565" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I565" s="1"/>
-    </row>
-    <row r="566" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J565" s="1"/>
+    </row>
+    <row r="566" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I566" s="1"/>
-    </row>
-    <row r="567" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J566" s="1"/>
+    </row>
+    <row r="567" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I567" s="1"/>
-    </row>
-    <row r="568" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J567" s="1"/>
+    </row>
+    <row r="568" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I568" s="1"/>
-    </row>
-    <row r="569" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J568" s="1"/>
+    </row>
+    <row r="569" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I569" s="1"/>
-    </row>
-    <row r="570" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J569" s="1"/>
+    </row>
+    <row r="570" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I570" s="1"/>
-    </row>
-    <row r="571" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J570" s="1"/>
+    </row>
+    <row r="571" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I571" s="1"/>
-    </row>
-    <row r="572" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J571" s="1"/>
+    </row>
+    <row r="572" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I572" s="1"/>
-    </row>
-    <row r="573" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J572" s="1"/>
+    </row>
+    <row r="573" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I573" s="1"/>
-    </row>
-    <row r="574" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J573" s="1"/>
+    </row>
+    <row r="574" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I574" s="1"/>
-    </row>
-    <row r="575" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J574" s="1"/>
+    </row>
+    <row r="575" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I575" s="1"/>
-    </row>
-    <row r="576" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J575" s="1"/>
+    </row>
+    <row r="576" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I576" s="1"/>
-    </row>
-    <row r="577" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J576" s="1"/>
+    </row>
+    <row r="577" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I577" s="1"/>
-    </row>
-    <row r="578" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J577" s="1"/>
+    </row>
+    <row r="578" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I578" s="1"/>
-    </row>
-    <row r="579" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J578" s="1"/>
+    </row>
+    <row r="579" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I579" s="1"/>
-    </row>
-    <row r="580" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J579" s="1"/>
+    </row>
+    <row r="580" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I580" s="1"/>
-    </row>
-    <row r="581" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J580" s="1"/>
+    </row>
+    <row r="581" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I581" s="1"/>
-    </row>
-    <row r="582" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J581" s="1"/>
+    </row>
+    <row r="582" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I582" s="1"/>
-    </row>
-    <row r="583" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J582" s="1"/>
+    </row>
+    <row r="583" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I583" s="1"/>
-    </row>
-    <row r="584" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J583" s="1"/>
+    </row>
+    <row r="584" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I584" s="1"/>
-    </row>
-    <row r="585" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J584" s="1"/>
+    </row>
+    <row r="585" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I585" s="1"/>
-    </row>
-    <row r="586" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J585" s="1"/>
+    </row>
+    <row r="586" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I586" s="1"/>
-    </row>
-    <row r="587" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J586" s="1"/>
+    </row>
+    <row r="587" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I587" s="1"/>
-    </row>
-    <row r="588" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J587" s="1"/>
+    </row>
+    <row r="588" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I588" s="1"/>
-    </row>
-    <row r="589" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J588" s="1"/>
+    </row>
+    <row r="589" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I589" s="1"/>
-    </row>
-    <row r="590" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J589" s="1"/>
+    </row>
+    <row r="590" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I590" s="1"/>
-    </row>
-    <row r="591" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J590" s="1"/>
+    </row>
+    <row r="591" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I591" s="1"/>
-    </row>
-    <row r="592" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J591" s="1"/>
+    </row>
+    <row r="592" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I592" s="1"/>
-    </row>
-    <row r="593" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J592" s="1"/>
+    </row>
+    <row r="593" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I593" s="1"/>
-    </row>
-    <row r="594" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J593" s="1"/>
+    </row>
+    <row r="594" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I594" s="1"/>
-    </row>
-    <row r="595" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J594" s="1"/>
+    </row>
+    <row r="595" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I595" s="1"/>
-    </row>
-    <row r="596" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J595" s="1"/>
+    </row>
+    <row r="596" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I596" s="1"/>
-    </row>
-    <row r="597" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J596" s="1"/>
+    </row>
+    <row r="597" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I597" s="1"/>
-    </row>
-    <row r="598" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J597" s="1"/>
+    </row>
+    <row r="598" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I598" s="1"/>
+      <c r="J598" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J53" xr:uid="{3E2E517C-8B10-4244-A34A-9A46EFCACAB2}">
-    <sortState ref="A2:J52">
+  <autoFilter ref="A1:K53" xr:uid="{3E2E517C-8B10-4244-A34A-9A46EFCACAB2}">
+    <sortState ref="A2:K52">
       <sortCondition ref="A1:A53"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:J52">
+  <sortState ref="A2:K52">
     <sortCondition ref="B5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data/traits_biologiques.xlsx
+++ b/raw_data/traits_biologiques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DC1ABE-9647-4325-8F07-521D62245772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814421D-44F3-4729-A619-840F03D1A4AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
   <dimension ref="A1:L598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,8 +2176,7 @@
         <v>200</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="1"/>
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1">

--- a/raw_data/traits_biologiques.xlsx
+++ b/raw_data/traits_biologiques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814421D-44F3-4729-A619-840F03D1A4AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA2389-7930-41A5-BEE4-414E7B4227D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -354,9 +354,6 @@
     <t>taille_min</t>
   </si>
   <si>
-    <t>duree_generation</t>
-  </si>
-  <si>
     <t>VAR</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>Chevesne</t>
+  </si>
+  <si>
+    <t>temps_generation</t>
   </si>
 </sst>
 </file>
@@ -805,13 +805,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
   <dimension ref="A1:L598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
@@ -827,7 +827,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>102</v>
@@ -851,13 +851,13 @@
         <v>101</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>107</v>
@@ -941,9 +941,6 @@
         <v>50</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
       <c r="L4" s="1">
         <v>400</v>
       </c>
@@ -974,9 +971,6 @@
         <v>170</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>15</v>
-      </c>
       <c r="L5" s="1">
         <v>250</v>
       </c>
@@ -1009,9 +1003,6 @@
         <v>40.5</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1066,9 +1057,6 @@
         <v>225</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1">
-        <v>10</v>
-      </c>
       <c r="L8" s="1">
         <v>50</v>
       </c>
@@ -1211,16 +1199,13 @@
         <v>38</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>3</v>
-      </c>
       <c r="L13" s="1">
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -1242,10 +1227,7 @@
         <v>57.5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="1">
-        <v>5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1274,9 +1256,6 @@
         <v>300</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1306,9 +1285,6 @@
         <v>200</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1">
-        <v>6</v>
-      </c>
       <c r="L16" s="1">
         <v>250</v>
       </c>
@@ -1341,9 +1317,6 @@
         <v>80</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1427,9 +1400,6 @@
         <v>300</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1">
-        <v>15</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1484,9 +1454,6 @@
         <v>700</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
-        <v>20</v>
-      </c>
       <c r="L22" s="1">
         <v>25</v>
       </c>
@@ -1519,9 +1486,6 @@
         <v>100</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1584,9 +1548,6 @@
         <v>290</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1618,10 +1579,10 @@
         <v>100</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K26" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L26" s="1">
         <v>110</v>
@@ -1653,7 +1614,7 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L27" s="1">
         <v>25</v>
@@ -1683,9 +1644,6 @@
         <v>465</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1">
-        <v>5</v>
-      </c>
       <c r="L28" s="1">
         <v>50</v>
       </c>
@@ -1718,7 +1676,7 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1751,10 +1709,10 @@
         <v>200</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K30" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1786,10 +1744,10 @@
         <v>280</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K31" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L31" s="1">
         <v>50</v>
@@ -1825,7 +1783,7 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L32" s="1">
         <v>700</v>
@@ -1861,10 +1819,10 @@
         <v>450</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K33" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L33" s="1">
         <v>90</v>
@@ -1900,10 +1858,10 @@
         <v>50</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K34" s="1">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1911,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>77</v>
@@ -1935,10 +1893,10 @@
         <v>300</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K35" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L35" s="1">
         <v>300</v>
@@ -1972,10 +1930,10 @@
         <v>34</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K36" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2004,10 +1962,10 @@
         <v>40</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L37" s="1">
         <v>150</v>
@@ -2041,9 +1999,6 @@
         <v>215</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -2075,10 +2030,10 @@
         <v>57</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K39" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2111,10 +2066,10 @@
         <v>100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K40" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2145,10 +2100,10 @@
         <v>65</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K41" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L41" s="1">
         <v>50</v>
@@ -2179,9 +2134,6 @@
         <v>750</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2213,10 +2165,10 @@
         <v>150</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K43" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L43" s="1">
         <v>450</v>
@@ -2279,9 +2231,6 @@
         <v>270</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -2314,7 +2263,7 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L46" s="1">
         <v>50</v>
@@ -2347,10 +2296,10 @@
         <v>100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K47" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2379,7 +2328,7 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2410,10 +2359,10 @@
         <v>240</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K49" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2445,10 +2394,10 @@
         <v>200</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K50" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2479,10 +2428,10 @@
         <v>70</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K51" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2493,7 +2442,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="8">
         <v>110</v>
@@ -2514,10 +2463,10 @@
         <v>170</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K52" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L52" s="1">
         <v>150</v>

--- a/raw_data/traits_biologiques.xlsx
+++ b/raw_data/traits_biologiques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale_old\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA2389-7930-41A5-BEE4-414E7B4227D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528C03F-BE1E-4C70-9429-57C67638A2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -360,9 +360,6 @@
     <t>espece_presence_lrr_2015</t>
   </si>
   <si>
-    <t>taille_maturite</t>
-  </si>
-  <si>
     <t>age_maturite</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>temps_generation</t>
+  </si>
+  <si>
+    <t>taille_maturite_ref</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
   <dimension ref="A1:L598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,13 +851,13 @@
         <v>101</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>107</v>
@@ -1227,7 +1227,7 @@
         <v>57.5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>100</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" s="1">
         <v>15</v>
@@ -1709,7 +1709,7 @@
         <v>200</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K30" s="1">
         <v>12</v>
@@ -1744,7 +1744,7 @@
         <v>280</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K31" s="1">
         <v>15</v>
@@ -1819,7 +1819,7 @@
         <v>450</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K33" s="1">
         <v>15</v>
@@ -1858,7 +1858,7 @@
         <v>50</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K34" s="1">
         <v>10</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>77</v>
@@ -1893,7 +1893,7 @@
         <v>300</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K35" s="1">
         <v>18</v>
@@ -1930,7 +1930,7 @@
         <v>34</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K36" s="1">
         <v>10</v>
@@ -1962,7 +1962,7 @@
         <v>40</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K37" s="1">
         <v>10</v>
@@ -2030,7 +2030,7 @@
         <v>57</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K39" s="1">
         <v>12</v>
@@ -2066,7 +2066,7 @@
         <v>100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="1">
         <v>10</v>
@@ -2100,7 +2100,7 @@
         <v>65</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K41" s="1">
         <v>15</v>
@@ -2165,7 +2165,7 @@
         <v>150</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K43" s="1">
         <v>18</v>
@@ -2296,7 +2296,7 @@
         <v>100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K47" s="1">
         <v>15</v>
@@ -2359,7 +2359,7 @@
         <v>240</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K49" s="1">
         <v>15</v>
@@ -2394,7 +2394,7 @@
         <v>200</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K50" s="1">
         <v>10</v>
@@ -2428,7 +2428,7 @@
         <v>70</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K51" s="1">
         <v>12</v>
@@ -2463,7 +2463,7 @@
         <v>170</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K52" s="1">
         <v>12</v>
